--- a/SuggestedLists/eScene.09 - Incident Location Type.xlsx
+++ b/SuggestedLists/eScene.09 - Incident Location Type.xlsx
@@ -7,17 +7,15 @@
     <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
   </bookViews>
   <sheets>
-    <sheet name="Incident Location Type List" sheetId="4" r:id="rId1"/>
+    <sheet name="Incident Location Type by Code" sheetId="4" r:id="rId1"/>
+    <sheet name="IncidentLocation by EMS Descr" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="164">
-  <si>
-    <t>TTY</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="195">
   <si>
     <t>HT</t>
   </si>
@@ -502,18 +500,131 @@
     <t>ICD-10-CM Code</t>
   </si>
   <si>
-    <t xml:space="preserve">Incident Location Type (eScene.09) ICD-10-CM Description </t>
-  </si>
-  <si>
-    <t>Clarification of Use:  
-EMS should use the simple description</t>
+    <t>TTY Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ICD-10-CM Description </t>
+  </si>
+  <si>
+    <t>NEMSIS Version 3 - Incident Location Type 
+Example EMS Descriptor</t>
+  </si>
+  <si>
+    <t>SYN: Swm-pool in sngl-fmly (private) house or garden as place.</t>
+  </si>
+  <si>
+    <t>SYN: Private garage of single-family (private) house as place.</t>
+  </si>
+  <si>
+    <t>SYN: Condominium as the place of occurrence of the external cause.</t>
+  </si>
+  <si>
+    <t>SYN: Unsp residential institution as place</t>
+  </si>
+  <si>
+    <t>SYN: Daycare center as place.</t>
+  </si>
+  <si>
+    <t>SYN: Farmhouse as the place of occurrence of the external cause.</t>
+  </si>
+  <si>
+    <t>SYN: Hospice as the place of occurrence of the external cause.</t>
+  </si>
+  <si>
+    <t>SYN: Elementary school as place.</t>
+  </si>
+  <si>
+    <t>SYN: Middle school as place.</t>
+  </si>
+  <si>
+    <t>SYN: Movie house or cinema as place.</t>
+  </si>
+  <si>
+    <t>SYN: Religious institution as place.</t>
+  </si>
+  <si>
+    <t>SYN: Trade school as place.</t>
+  </si>
+  <si>
+    <t>SYN: Oth public building as place.</t>
+  </si>
+  <si>
+    <t>SYN: Swimming pool (public) as place.</t>
+  </si>
+  <si>
+    <t>SYN: Ambulatory surgery center as place.</t>
+  </si>
+  <si>
+    <t>SYN: Health care provider office as place.</t>
+  </si>
+  <si>
+    <t>SYN: Urgent care center as place.</t>
+  </si>
+  <si>
+    <t>SYN: Oth ambulatory health services establishments as place.</t>
+  </si>
+  <si>
+    <t>SYN: Building under construction as place.</t>
+  </si>
+  <si>
+    <t>SYN: Dock or shipyard as place.</t>
+  </si>
+  <si>
+    <t>Clar: This includes areas such as factory building, factory premises, industrial yard.</t>
+  </si>
+  <si>
+    <t>SYN: Oth industrial and construction area as place. 
+Clar: This includes areas such as a tunnel under construction, workshop, gasworks.</t>
+  </si>
+  <si>
+    <t>SYN: Ranch as the place of occurrence of the external cause.</t>
+  </si>
+  <si>
+    <t>SYN: Amusement park as place.</t>
+  </si>
+  <si>
+    <t>SYN: Seashore as the place of occurrence of the external cause.</t>
+  </si>
+  <si>
+    <t>SYN: Zoological garden (Zoo) as place.</t>
+  </si>
+  <si>
+    <t>SYN: Oth recreation area as place.</t>
+  </si>
+  <si>
+    <t>SYN: Railroad track as place.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NEMSIS Version 3 - Incident Location Type 
+Explanation of Inclusion or Clarification
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clar: Clarification or example of potential use.
+SYN: The ICD-10-CM synonym for the description.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Unspecified non-institutional (private) residence </t>
+  </si>
+  <si>
+    <t>SYN: Oth sports and athletic area as place. 
+Clar: This includes sporting facilities such as golf course, gymnasium, riding-school, stadium.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,13 +640,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -565,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -576,6 +700,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -879,937 +1012,2105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="50.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
+      <c r="B1" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>162</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E2" s="3"/>
+      <c r="F2" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+      <c r="F6" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E7" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+      <c r="F10" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+      <c r="F11" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+      <c r="F12" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+      <c r="F16" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+      <c r="F17" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="3"/>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+      <c r="F21" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+      <c r="F22" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="3"/>
+      <c r="F23" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E24" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="3"/>
+      <c r="F26" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="3"/>
+      <c r="F27" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="3"/>
+      <c r="F28" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E29" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="3"/>
+      <c r="F31" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E32" s="3"/>
+      <c r="F32" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="3"/>
+      <c r="F33" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="3"/>
+      <c r="F34" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="3"/>
+      <c r="F35" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E38" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E39" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="3"/>
+      <c r="F43" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E44" s="3"/>
+      <c r="F44" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="3"/>
+      <c r="F47" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="3"/>
+      <c r="F48" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="3"/>
+      <c r="F51" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>160</v>
+      <c r="E54" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="50.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F54">
+    <sortCondition ref="F1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SuggestedLists/eScene.09 - Incident Location Type.xlsx
+++ b/SuggestedLists/eScene.09 - Incident Location Type.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Users\cmann\DAILY FILES\GRANTS\NEMSIS\V3\V3_5_0\Suggested Lists\Refined Suggested Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Users\jehlers\v3 Suggested Lists\Final Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FD819EB-150A-4507-B902-74A096AFDEDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="6740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommendation" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="128">
   <si>
     <t>Count of Events</t>
   </si>
@@ -44,6 +45,9 @@
     <t>PARENT</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>Y92.03</t>
   </si>
   <si>
@@ -299,9 +303,15 @@
     <t>Street/road/highway</t>
   </si>
   <si>
+    <t>Includes Y92.10 and Y92.19</t>
+  </si>
+  <si>
     <t>Institutional Residence</t>
   </si>
   <si>
+    <t>Includes Y92.219 Unspecified school</t>
+  </si>
+  <si>
     <t>Gym</t>
   </si>
   <si>
@@ -326,9 +336,15 @@
     <t>Prison/jail</t>
   </si>
   <si>
+    <t xml:space="preserve">Includes Y92.9 Unspecified place </t>
+  </si>
+  <si>
     <t>Nursing home</t>
   </si>
   <si>
+    <t>Includes Y92.230 Patient room in hospital</t>
+  </si>
+  <si>
     <t>Place of business, NOS</t>
   </si>
   <si>
@@ -362,6 +378,9 @@
     <t>FREQUENCY</t>
   </si>
   <si>
+    <t>Includes Y92.512 Grocery store</t>
+  </si>
+  <si>
     <t>Industrial/construction area</t>
   </si>
   <si>
@@ -371,55 +390,35 @@
     <t>Other private residence</t>
   </si>
   <si>
+    <t>Icludes Y92.00, Y92.008, Y92.01</t>
+  </si>
+  <si>
     <t>Public area, NOS</t>
   </si>
   <si>
+    <t>Includes Y92.41 Street and highway, Includes Y92.414 Local residential or business street, Y92.48</t>
+  </si>
+  <si>
     <t>Military installation</t>
   </si>
   <si>
     <t>Other, NOS</t>
   </si>
   <si>
-    <t>Revised Draft Suggested List (eScene.09: Incident Location Type)</t>
+    <t>eScene.09: Incident Location Type Suggested List</t>
   </si>
   <si>
     <t>Record Date Range Evaluated: 01/01/2017 though 06/28/2019</t>
-  </si>
-  <si>
-    <t>NOTES</t>
-  </si>
-  <si>
-    <t>Includes Y92.512 Grocery store</t>
-  </si>
-  <si>
-    <t>Includes Y92.230 Patient room in hospital</t>
-  </si>
-  <si>
-    <t>Includes Y92.10 and Y92.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Includes Y92.9 Unspecified place </t>
-  </si>
-  <si>
-    <t>Includes Y92.219 Unspecified school</t>
-  </si>
-  <si>
-    <t>Includes Y92.41 Street and highway, Includes Y92.414 Local residential or business street, Y92.48</t>
-  </si>
-  <si>
-    <t>Includes Y92.00, Y92.008, Y92.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +435,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -445,21 +451,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -546,11 +537,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,15 +551,22 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -579,9 +576,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -590,24 +584,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -615,26 +597,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -912,872 +883,870 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="92.88671875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="80.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="23.54296875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="92.81640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="7"/>
+    <col min="6" max="6" width="12.26953125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="51.26953125" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A1" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C2" s="10"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="31" x14ac:dyDescent="0.7">
+      <c r="C1" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C2" s="13"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D3" s="4"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E4" s="35" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="E4" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
-        <v>119</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="36">
+        <v>87</v>
+      </c>
+      <c r="E5" s="30">
         <v>37063795</v>
       </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="30">
         <v>795505</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="29">
         <v>2123076</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D8" s="29"/>
-      <c r="E8" s="25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D8" s="8"/>
+      <c r="E8" s="12">
         <f>E5-E6-E7</f>
         <v>34145214</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>110</v>
+      <c r="E9" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="33">
+        <v>116</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="26">
         <v>150059</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="18">
         <f t="shared" ref="F10:F16" si="0">E10/$E$8</f>
         <v>4.3947301077099706E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="33">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="26">
         <v>50329</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="18">
         <f t="shared" si="0"/>
         <v>1.4739693826490588E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="33">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="26">
         <v>32466</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="18">
         <f t="shared" si="0"/>
         <v>9.5082139476413883E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="33">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="26">
         <v>413426</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="18">
         <f t="shared" si="0"/>
         <v>1.2107875499037727E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="33">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="26">
         <v>70077</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="18">
         <f t="shared" si="0"/>
         <v>2.0523227647658029E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="33">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="26">
         <f>795271+45163</f>
         <v>840434</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="18">
         <f t="shared" si="0"/>
         <v>2.4613522703357489E-2</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="33">
+      <c r="G15" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="26">
         <v>168101</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="18">
         <f t="shared" si="0"/>
         <v>4.923120411545817E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="18" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="26">
+        <v>1266687</v>
+      </c>
+      <c r="F18" s="18">
+        <f>E18/$E$8</f>
+        <v>3.7097058463303231E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="33">
-        <v>2137694</v>
-      </c>
-      <c r="F18" s="15">
-        <f>E18/$E$8</f>
-        <v>6.2605962873742718E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="33">
-        <v>1266687</v>
-      </c>
-      <c r="F19" s="15">
-        <f>E19/$E$8</f>
-        <v>3.7097058463303231E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="32" t="s">
+      <c r="C19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="33">
+      <c r="D19" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="26">
         <f>4839033+67735</f>
         <v>4906768</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F19" s="18">
+        <f>E19/$E$8</f>
+        <v>0.14370295058042395</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="26">
+        <v>2137694</v>
+      </c>
+      <c r="F20" s="18">
         <f>E20/$E$8</f>
-        <v>0.14370295058042395</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="33">
+        <v>6.2605962873742718E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="26">
         <v>522964</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="18">
         <f>E21/$E$8</f>
         <v>1.5315879994191865E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="33">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="26">
         <v>116795</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="18">
         <f>E22/$E$8</f>
         <v>3.4205379412763381E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="33">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="26">
         <f>93081+232434+254128</f>
         <v>579643</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="18">
         <f>E24/$E$8</f>
         <v>1.6975819803033011E-2</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="32" t="s">
+      <c r="G24" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="33">
+      <c r="D25" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="26">
         <v>174571</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="18">
         <f>E25/$E$8</f>
         <v>5.1126052394927148E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="33">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="26">
         <v>301618</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="18">
         <f>E27/$E$8</f>
         <v>8.83339023735508E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="32" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="33">
+      <c r="D28" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="26">
         <v>13235</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="18">
         <f>E28/$E$8</f>
         <v>3.876092268743725E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="33">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="26">
         <f>405428+336068</f>
         <v>741496</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="18">
         <f>E29/$E$8</f>
         <v>2.171595702987833E-2</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="14" t="s">
+      <c r="G29" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="C30" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="33">
+      <c r="D30" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="26">
         <v>53199</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="18">
         <f>E30/$E$8</f>
         <v>1.5580221579516238E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="32" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="33">
+      <c r="D32" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="26">
         <v>1723002</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="18">
         <f>E32/$E$8</f>
         <v>5.0461010436191729E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="14" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="C33" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="33">
+      <c r="D33" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="26">
         <v>125920</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="18">
         <f>E33/$E$8</f>
         <v>3.6877789080484312E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="32" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="33">
+      <c r="D34" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="26">
         <v>202243</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="18">
         <f>E34/$E$8</f>
         <v>5.9230262841521511E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="33">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="26">
         <f>3004673+1408567+429506+8225448+103014</f>
         <v>13171208</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="18">
         <f>E35/$E$8</f>
         <v>0.38574097090151493</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="32" t="s">
+      <c r="G35" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="33">
+      <c r="D37" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="26">
         <v>250183</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="18">
         <f>E37/$E$8</f>
         <v>7.3270297851991788E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="33">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="26">
         <v>103772</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="18">
         <f>E38/$E$8</f>
         <v>3.0391374908354651E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="33">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="26">
         <v>431832</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="18">
         <f>E40/$E$8</f>
         <v>1.2646926154863168E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="33">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="26">
         <v>55774</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="18">
         <f>E41/$E$8</f>
         <v>1.6334353622736119E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="33">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B42" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="26">
         <v>5435</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="18">
         <f>E42/$E$8</f>
         <v>1.5917311281165203E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="33">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="26">
         <v>69895</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="18">
         <f>E43/$E$8</f>
         <v>2.046992588771006E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="16" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="33">
+      <c r="C44" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="26">
         <v>38555</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="18">
         <f>E44/$E$8</f>
         <v>1.1291479971395112E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="33">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="23"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="26">
         <v>13644</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="18">
         <f>E46/$E$8</f>
         <v>3.9958747952202026E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="14" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="C47" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="33">
+      <c r="D47" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="26">
         <f>82335+117039</f>
         <v>199374</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F47" s="18">
         <f>E47/$E$8</f>
         <v>5.8390027955308758E-3</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="32" t="s">
+      <c r="G47" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B48" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="33">
+      <c r="D48" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="26">
         <v>17948</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="18">
         <f>E48/$E$8</f>
         <v>5.2563735579457785E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="22"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" s="33">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="23"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="26">
         <v>91513</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="18">
         <f>E50/$E$8</f>
         <v>2.6801120649002229E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" s="33">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="26">
         <v>77578</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="18">
         <f>E51/$E$8</f>
         <v>2.2720021611227856E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52" s="33">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="26">
         <f>842773+2451450+282528+446698</f>
         <v>4023449</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="18">
         <f>E52/$E$8</f>
         <v>0.11783346854994085</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F53" s="23">
+      <c r="G52" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F54" s="9">
         <f>SUM(F10:F52)</f>
         <v>0.97058659523996549</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B10:G16">
-    <sortCondition ref="B10"/>
+  <sortState ref="B17:G22">
+    <sortCondition ref="B17"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="47" orientation="landscape" r:id="rId1"/>
